--- a/資料/仕様書/画面遷移.xlsx
+++ b/資料/仕様書/画面遷移.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\PICもぐら叩きゲーム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D99179-F89E-4D5C-8E14-99BDD887ACF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4073BA8-583E-4D1F-B0F3-C04B3266C04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{38663932-9F00-47B2-B139-BE9C3F248F59}"/>
+    <workbookView xWindow="0" yWindow="1900" windowWidth="19200" windowHeight="8800" xr2:uid="{38663932-9F00-47B2-B139-BE9C3F248F59}"/>
   </bookViews>
   <sheets>
-    <sheet name="画面遷移 (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="画面遷移 (2)" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
   <si>
     <t>●</t>
     <phoneticPr fontId="1"/>
@@ -44,13 +44,6 @@
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム終了</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -151,19 +144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残り時間が3減少する</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム終了(スコア30)</t>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
@@ -191,30 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>穴のイラスト</t>
-    <rPh sb="0" eb="1">
-      <t>アナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モグラのイラスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モグラを叩いたとき(撃退時)のイラスト</t>
-    <rPh sb="4" eb="5">
-      <t>タタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゲキタイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スタート・ストップスイッチ押下</t>
   </si>
   <si>
@@ -261,35 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残り時間が1減少</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1番左の穴にもぐら出現</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モグラのイラストに変化</t>
     <rPh sb="9" eb="11">
       <t>ヘンカ</t>
@@ -297,19 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一定時間(○ms経過)</t>
-    <rPh sb="0" eb="2">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲーム開始のカウントダウン(2秒)</t>
     <rPh sb="3" eb="5">
       <t>カイシ</t>
@@ -347,7 +261,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一定時間経過(例として1秒とする)</t>
+    <t>モ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>゛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了(画面点滅)</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定時間経過</t>
     <rPh sb="0" eb="2">
       <t>イッテイ</t>
     </rPh>
@@ -357,32 +304,101 @@
     <rPh sb="4" eb="6">
       <t>ケイカ</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り時間が3秒減少する</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り時間が1秒減少</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モグラが撃退され、</t>
+    <rPh sb="4" eb="6">
+      <t>ゲキタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)1番左の穴にもぐら出現</t>
+    <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>゛</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キ</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>叩かれたモグラ</t>
+    <rPh sb="0" eb="1">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現したモグラ</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モグラの穴</t>
+    <rPh sb="4" eb="5">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドット絵は以下の記号で示す</t>
+    <rPh sb="3" eb="4">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +429,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +460,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -521,19 +551,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,13 +586,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7257</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -573,7 +600,7 @@
         <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E5F910-3030-4355-9890-3DBD549A69C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A9C537-4F93-4194-8F33-4DBBB65DAE16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -581,7 +608,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2521857" y="2305050"/>
+          <a:off x="2521857" y="3657600"/>
           <a:ext cx="2088243" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -612,13 +639,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>202293</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -626,7 +653,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6699128D-EDFB-479D-B67E-0491FA748208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE056B8-F769-4CAB-98F8-E81B85B935D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,7 +661,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="5657850"/>
+          <a:off x="6705600" y="7315200"/>
           <a:ext cx="1878693" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -665,13 +692,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -679,7 +706,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06BF957-48C0-4499-AE2B-267FFD5D891E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFA51B0-F557-4A15-AE61-3780449E4EA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -687,8 +714,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010651" y="5956300"/>
-          <a:ext cx="0" cy="901700"/>
+          <a:off x="9010651" y="7632700"/>
+          <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -718,13 +745,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -732,7 +759,7 @@
         <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9036AD-FACC-47D8-BED7-5909CC33300A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F18F6B7-60E3-442E-B379-FDFA7985306A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -740,8 +767,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9004300" y="7670800"/>
-          <a:ext cx="6350" cy="844550"/>
+          <a:off x="9004300" y="9499600"/>
+          <a:ext cx="6350" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -771,13 +798,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>2387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>11545</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>196275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -785,7 +812,7 @@
         <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C213106E-50F4-4B24-B9A8-D77DD59BE023}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CED98B8-3547-4199-92D1-C2892C41EAAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -793,8 +820,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10491104" y="5856184"/>
-          <a:ext cx="1241638" cy="849744"/>
+          <a:off x="10443479" y="7561159"/>
+          <a:ext cx="1336888" cy="849744"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -826,13 +853,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -840,7 +867,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549AF8AC-48F2-4D2A-8A07-92D1B4BC7D0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D4FB8C-7659-499C-A92E-F11AD70BC896}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,8 +875,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="5956300"/>
-          <a:ext cx="0" cy="901700"/>
+          <a:off x="5029201" y="7632700"/>
+          <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -879,13 +906,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -893,7 +920,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA72BAD-B53D-4B36-99B1-4F83A2E1091A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1231DF64-E71F-432A-8F53-D45C1067D1A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,8 +928,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="7632700"/>
-          <a:ext cx="0" cy="901700"/>
+          <a:off x="5029201" y="9461500"/>
+          <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -932,13 +959,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -946,7 +973,7 @@
         <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7E35E7-3E42-4400-81C1-1654792D10FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F7DF9D-9ED0-44B0-AE26-787F5567E23B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -954,8 +981,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-419099" y="3981450"/>
-          <a:ext cx="6286500" cy="3771899"/>
+          <a:off x="-704849" y="5657850"/>
+          <a:ext cx="6858000" cy="3771899"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -987,13 +1014,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1001,7 +1028,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB2644F-8BAC-43D9-BA16-E5F642C90270}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60D7FFB-1C5D-40A3-9E1B-67DAE139C465}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,8 +1036,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="2578100"/>
-          <a:ext cx="0" cy="901700"/>
+          <a:off x="5029200" y="3949700"/>
+          <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1040,13 +1067,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>4618</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>121803</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1054,7 +1081,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1ED10C-BCF0-41E4-B62D-627172910580}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A579D98E-C8F6-4F27-ABCE-F47CA6E704EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1062,8 +1089,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="9335654"/>
-          <a:ext cx="4618" cy="844549"/>
+          <a:off x="9010650" y="11316854"/>
+          <a:ext cx="4618" cy="920749"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1093,13 +1120,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>2309</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1107,7 +1134,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FBB2AD-3D9F-4E77-BAD2-D206CE89BE0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB898ECA-2388-4D4D-B935-B3CE47681F2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,7 +1142,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2514601" y="10687050"/>
+          <a:off x="2514601" y="12801600"/>
           <a:ext cx="6076949" cy="2309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1146,13 +1173,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4619</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>121805</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1160,7 +1187,7 @@
         <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5228EB13-AE03-4DB0-BB04-55D659266BAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0662F1D-7081-4C82-B885-0363E2CA9CCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1168,8 +1195,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="11012055"/>
-          <a:ext cx="4619" cy="844550"/>
+          <a:off x="838200" y="13145655"/>
+          <a:ext cx="4619" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1199,21 +1226,21 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>13930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6165B85-F4D9-4463-97C6-B91040E0F327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6F37A7-9F41-4B20-9256-6D67A4297E1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,8 +1248,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10687050" y="5462230"/>
-          <a:ext cx="3981450" cy="1452920"/>
+          <a:off x="10687050" y="7100530"/>
+          <a:ext cx="3981450" cy="1586270"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1254,21 +1281,21 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>107372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>170873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5865F490-4B5B-44D7-8156-43C7D3B2212C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA243F0-0BF7-4A95-A4A3-EABA824404BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,13 +1303,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="4298372"/>
-          <a:ext cx="0" cy="901701"/>
+          <a:off x="5029200" y="5822372"/>
+          <a:ext cx="0" cy="977901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1602,33 +1630,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5844E4-BB82-4313-A1F9-D98F92317900}">
-  <dimension ref="A1:BY60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA23EFB-1A9B-4DC0-85BB-DAD9DB055848}">
+  <dimension ref="A1:BY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BJ41" sqref="BJ41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AM1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BK23" sqref="BK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="2"/>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="4"/>
       <c r="U3" s="2"/>
@@ -1643,265 +1664,318 @@
       <c r="AO3" s="2"/>
     </row>
     <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="O4" s="2"/>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
       <c r="AO4" s="2"/>
     </row>
     <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+    </row>
+    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="12"/>
+    </row>
+    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="13"/>
+    </row>
+    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="12"/>
+    </row>
+    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="15"/>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="12"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="13"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="12"/>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="13"/>
+    </row>
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="12"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y20" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="M11" t="s">
+    </row>
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P23" s="5"/>
+      <c r="X23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
+    </row>
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="8">
         <v>2</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="10">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Y15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P18" s="5"/>
-      <c r="X18" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-    </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="Y23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="X26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="X27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="10">
-        <v>6</v>
-      </c>
-      <c r="AE27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX27" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
     </row>
     <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="2"/>
@@ -1909,59 +1983,32 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="Y31" t="s">
+      <c r="X31" t="s">
         <v>7</v>
       </c>
-      <c r="AR31" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD31" t="s">
-        <v>28</v>
+      <c r="AQ31" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1970,120 +2017,97 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="34" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="X34" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>17</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="X35" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="9" t="s">
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AD35" s="10">
-        <v>5</v>
-      </c>
-      <c r="AE35" s="10">
-        <v>9</v>
-      </c>
-      <c r="AQ35" s="11" t="s">
+      <c r="AD32" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AR35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="11">
+      <c r="AR32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW35" s="1">
+      <c r="AW32" s="1">
         <v>6</v>
       </c>
-      <c r="AX35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI35" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ35" s="10">
-        <v>7</v>
-      </c>
-      <c r="BR35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV35" s="1"/>
-      <c r="BW35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX35" s="10">
-        <v>5</v>
-      </c>
-      <c r="BY35" s="10">
-        <v>9</v>
+      <c r="AX32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2092,353 +2116,481 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="12" t="s">
+      <c r="Y36" t="s">
         <v>6</v>
       </c>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1" t="s">
+      <c r="AR36" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AQ38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="X40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="8">
         <v>5</v>
       </c>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI36" s="1"/>
-      <c r="BJ36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR36" s="1"/>
-      <c r="BS36" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV36" s="1"/>
-      <c r="BW36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX36" s="1"/>
-      <c r="BY36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Y39" t="s">
+      <c r="AE40" s="8">
+        <v>9</v>
+      </c>
+      <c r="AQ40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI40" s="8">
+        <v>5</v>
+      </c>
+      <c r="BJ40" s="8">
+        <v>7</v>
+      </c>
+      <c r="BR40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX40" s="8">
+        <v>5</v>
+      </c>
+      <c r="BY40" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AR39" t="s">
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW48" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AR52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="X42" t="s">
+      <c r="H56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="T56" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AQ56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="9">
         <v>3</v>
       </c>
-      <c r="AQ42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="X43" s="1" t="s">
+      <c r="AT56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW56" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="1" t="s">
+      <c r="H57" s="1"/>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9">
+        <v>3</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AR43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW43" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX43" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC43" s="16"/>
-      <c r="BD43" s="16"/>
-      <c r="BE43" s="16"/>
-      <c r="BF43" s="16"/>
-      <c r="BG43" s="16"/>
-      <c r="BH43" s="17"/>
-      <c r="BI43" s="16"/>
-      <c r="BJ43" s="16"/>
-      <c r="BK43" s="18"/>
-    </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="1"/>
-      <c r="AR44" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="1"/>
-      <c r="AV44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="1"/>
-      <c r="AX44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC44" s="16"/>
-      <c r="BD44" s="16"/>
-      <c r="BE44" s="16"/>
-      <c r="BF44" s="16"/>
-      <c r="BG44" s="16"/>
-      <c r="BH44" s="16"/>
-      <c r="BI44" s="16"/>
-      <c r="BJ44" s="16"/>
-      <c r="BK44" s="18"/>
-    </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="AR47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D50" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="T51" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6"/>
-      <c r="AQ51" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="11">
+      <c r="H65" s="1"/>
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+      <c r="J65" s="9">
         <v>3</v>
       </c>
-      <c r="AT51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU51" s="1"/>
-      <c r="AV51" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AX51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11">
-        <v>3</v>
-      </c>
-      <c r="K52" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="6"/>
-      <c r="AQ52" s="1"/>
-      <c r="AR52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU52" s="1"/>
-      <c r="AV52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW52" s="1"/>
-      <c r="AX52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="11">
-        <v>0</v>
-      </c>
-      <c r="J60" s="11">
-        <v>3</v>
-      </c>
-      <c r="K60" s="11">
+      <c r="K65" s="9">
         <v>0</v>
       </c>
     </row>

--- a/資料/仕様書/画面遷移.xlsx
+++ b/資料/仕様書/画面遷移.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\PICもぐら叩きゲーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4073BA8-583E-4D1F-B0F3-C04B3266C04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9BDB4B-D1E7-4C1C-9AFA-8925048F1CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1900" windowWidth="19200" windowHeight="8800" xr2:uid="{38663932-9F00-47B2-B139-BE9C3F248F59}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{38663932-9F00-47B2-B139-BE9C3F248F59}"/>
   </bookViews>
   <sheets>
-    <sheet name="画面遷移 (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="画面遷移 (4)" sheetId="5" r:id="rId1"/>
+    <sheet name="画面遷移図 (2)" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +33,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={14224DCD-7B8E-4DAD-805A-93588D24FFCA}</author>
+    <author>tc={8BF31A71-D53B-45B9-BC2E-BC26742FBB9C}</author>
+    <author>tc={07AA5276-17E1-4454-8B89-780F004DBFEA}</author>
+  </authors>
+  <commentList>
+    <comment ref="U54" authorId="0" shapeId="0" xr:uid="{14224DCD-7B8E-4DAD-805A-93588D24FFCA}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    操作の意図が分かりやすいように追加</t>
+      </text>
+    </comment>
+    <comment ref="AF54" authorId="1" shapeId="0" xr:uid="{8BF31A71-D53B-45B9-BC2E-BC26742FBB9C}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    操作の意図が分かりやすいように追加</t>
+      </text>
+    </comment>
+    <comment ref="R57" authorId="2" shapeId="0" xr:uid="{07AA5276-17E1-4454-8B89-780F004DBFEA}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    例である明示が欲しい
+EASYだけなの？と思いそう</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="78">
   <si>
     <t>●</t>
     <phoneticPr fontId="1"/>
@@ -281,6 +319,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>モグラの穴</t>
+    <rPh sb="4" eb="5">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現したモグラ</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>叩かれたモグラ</t>
+    <rPh sb="0" eb="1">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドット絵は以下の記号で示す</t>
+    <rPh sb="3" eb="4">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ゲーム終了(画面点滅)</t>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
@@ -294,6 +369,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>残り時間が1秒減少</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り時間が3秒減少する</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)1番左の穴にもぐら出現</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モグラが撃退され、</t>
+    <rPh sb="4" eb="6">
+      <t>ゲキタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>一定時間経過</t>
     <rPh sb="0" eb="2">
       <t>イッテイ</t>
@@ -307,54 +440,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残り時間が3秒減少する</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゲンショウ</t>
-    </rPh>
+    <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>残り時間が1秒減少</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゲンショウ</t>
-    </rPh>
+    <t>R</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モグラが撃退され、</t>
-    <rPh sb="4" eb="6">
-      <t>ゲキタイ</t>
-    </rPh>
+    <t>O</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>例)1番左の穴にもぐら出現</t>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了(スコア30、ハイスコア更新)</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了(今回のスコアと前回までのハイスコアを表示)</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートスイッチ押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)1番左の穴にモグラ出現</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
+    <rPh sb="3" eb="5">
+      <t>バンヒダリ</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>アナ</t>
@@ -365,39 +505,173 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>叩かれたモグラ</t>
-    <rPh sb="0" eb="1">
-      <t>タタ</t>
-    </rPh>
+    <t>Y</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出現したモグラ</t>
-    <rPh sb="0" eb="2">
-      <t>シュツゲン</t>
-    </rPh>
+    <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モグラの穴</t>
-    <rPh sb="4" eb="5">
-      <t>アナ</t>
+    <t>ハイスコア保持(難易度EASY)</t>
+    <rPh sb="5" eb="7">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ナンイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドット絵は以下の記号で示す</t>
-    <rPh sb="3" eb="4">
-      <t>エ</t>
-    </rPh>
+    <t>ハイスコアクリア(難易度EASY)</t>
+    <rPh sb="9" eb="12">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(SW4押下)</t>
+  </si>
+  <si>
+    <t>(SW1押下)</t>
+  </si>
+  <si>
+    <t>クリアしない場合</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアする場合</t>
     <rPh sb="5" eb="7">
-      <t>イカ</t>
-    </rPh>
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイスコアクリア確認画面</t>
     <rPh sb="8" eb="10">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シメ</t>
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度変更(HARD)</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW3押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW2押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW1押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度変更(NORMAL)</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度選択&amp;ハイスコア表示画面</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER変更(USER4)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW4押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER変更(USER3)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER変更(USER2)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">タイトル画面(USER1) </t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -406,7 +680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +710,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -514,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,6 +813,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -551,16 +838,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,7 +899,7 @@
         <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A9C537-4F93-4194-8F33-4DBBB65DAE16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E19838-CE9D-481A-B6F7-9772F9D55C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -608,7 +907,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2521857" y="3657600"/>
+          <a:off x="2521857" y="3352800"/>
           <a:ext cx="2088243" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -653,7 +952,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE056B8-F769-4CAB-98F8-E81B85B935D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40A23DC-6546-4E12-89FE-F5CE3DC8C154}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -661,7 +960,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="7315200"/>
+          <a:off x="6705600" y="6705600"/>
           <a:ext cx="1878693" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -706,7 +1005,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFA51B0-F557-4A15-AE61-3780449E4EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE9CF4B-15C2-4432-9B2D-AD96B0E80CEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -714,8 +1013,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010651" y="7632700"/>
-          <a:ext cx="0" cy="977900"/>
+          <a:off x="9010651" y="7004050"/>
+          <a:ext cx="0" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -759,7 +1058,7 @@
         <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F18F6B7-60E3-442E-B379-FDFA7985306A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBAB630B-BCB2-4040-B22B-D89039D122FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -767,8 +1066,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9004300" y="9499600"/>
-          <a:ext cx="6350" cy="920750"/>
+          <a:off x="9004300" y="8718550"/>
+          <a:ext cx="6350" cy="844550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -812,7 +1111,7 @@
         <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CED98B8-3547-4199-92D1-C2892C41EAAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157106D0-9BF3-4650-B0C3-FB55850AA788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -820,8 +1119,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10443479" y="7561159"/>
-          <a:ext cx="1336888" cy="849744"/>
+          <a:off x="10491104" y="6903934"/>
+          <a:ext cx="1241638" cy="849744"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -867,7 +1166,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D4FB8C-7659-499C-A92E-F11AD70BC896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D23EA9-C7A7-4078-BFD3-4F3901EDA29B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,8 +1174,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="7632700"/>
-          <a:ext cx="0" cy="977900"/>
+          <a:off x="5029201" y="7004050"/>
+          <a:ext cx="0" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -920,7 +1219,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1231DF64-E71F-432A-8F53-D45C1067D1A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4591FF-47A0-4679-A2C0-69B6636513A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -928,8 +1227,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="9461500"/>
-          <a:ext cx="0" cy="977900"/>
+          <a:off x="5029201" y="8680450"/>
+          <a:ext cx="0" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -973,7 +1272,7 @@
         <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F7DF9D-9ED0-44B0-AE26-787F5567E23B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22895C2-555A-4E35-B4C5-34ED06EC626D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -981,8 +1280,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-704849" y="5657850"/>
-          <a:ext cx="6858000" cy="3771899"/>
+          <a:off x="-419099" y="5029200"/>
+          <a:ext cx="6286500" cy="3771899"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1028,7 +1327,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60D7FFB-1C5D-40A3-9E1B-67DAE139C465}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E14612-3673-4522-B1BC-CD09F5E1BA93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1036,8 +1335,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="3949700"/>
-          <a:ext cx="0" cy="977900"/>
+          <a:off x="5029200" y="3625850"/>
+          <a:ext cx="0" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1081,7 +1380,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A579D98E-C8F6-4F27-ABCE-F47CA6E704EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8693C37-C2DF-48C3-A770-1B1D2B0759C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,8 +1388,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="11316854"/>
-          <a:ext cx="4618" cy="920749"/>
+          <a:off x="9010650" y="10383404"/>
+          <a:ext cx="4618" cy="844549"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1134,7 +1433,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB898ECA-2388-4D4D-B935-B3CE47681F2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4251ECD2-FF7A-41A0-A0CE-47764F5ED4B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,7 +1441,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2514601" y="12801600"/>
+          <a:off x="2514601" y="11734800"/>
           <a:ext cx="6076949" cy="2309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1187,7 +1486,7 @@
         <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0662F1D-7081-4C82-B885-0363E2CA9CCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEDB458-7FBA-4FA3-B32A-97F2BF387395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,8 +1494,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="13145655"/>
-          <a:ext cx="4619" cy="920750"/>
+          <a:off x="838200" y="12059805"/>
+          <a:ext cx="4619" cy="844550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1240,7 +1539,7 @@
         <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6F37A7-9F41-4B20-9256-6D67A4297E1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7B34F9-23F4-4878-A231-CD60E869BEE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,8 +1547,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10687050" y="7100530"/>
-          <a:ext cx="3981450" cy="1586270"/>
+          <a:off x="10687050" y="6509980"/>
+          <a:ext cx="3981450" cy="1452920"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1295,7 +1594,7 @@
         <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA243F0-0BF7-4A95-A4A3-EABA824404BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464DAB2A-C299-46BC-8D9B-9572FF1FFC42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,8 +1602,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="5822372"/>
-          <a:ext cx="0" cy="977901"/>
+          <a:off x="5029200" y="5346122"/>
+          <a:ext cx="0" cy="901701"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1332,6 +1631,3225 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A02E49-9B74-4986-AB5A-53695E599ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="8915400"/>
+          <a:ext cx="1676400" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>202293</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D29D5F-75F3-4E25-9064-7C7D91FACD09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="18288000"/>
+          <a:ext cx="1878693" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97911D04-00E9-44FC-A7F4-31EC95B1825C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076951" y="18605500"/>
+          <a:ext cx="0" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD8AA93-6F49-43AD-9383-BD96F4C1D93F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6070600" y="20701000"/>
+          <a:ext cx="6350" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>2387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>196275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A3422C-9DF6-4828-8A16-0FC957D4A130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7509779" y="18533959"/>
+          <a:ext cx="1336888" cy="849744"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B9F0BF-D5AE-4D6A-B45F-CDB388365E35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095501" y="18605500"/>
+          <a:ext cx="0" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E499C56-84E7-43C4-B87C-FACA0FF9CCAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095501" y="20434300"/>
+          <a:ext cx="0" cy="3111500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386755F8-F5AA-40C0-BEA4-E471EDD129B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="14922500"/>
+          <a:ext cx="0" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>4618</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>121803</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B378C772-57F7-4045-9BED-13DAB4BBE482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="22518254"/>
+          <a:ext cx="4618" cy="920749"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>13930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31A6197-0966-4DEA-A105-49CCB8499913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="18073330"/>
+          <a:ext cx="3981450" cy="1586270"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>107372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>170873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BFD39B-42AA-406E-B6B9-464365B56A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="16795172"/>
+          <a:ext cx="0" cy="977901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4883</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>4884</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="205156" cy="203759"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B152F0-66E6-401E-A9DA-50D1E3E24BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2100383" y="18292884"/>
+          <a:ext cx="205156" cy="203759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6195</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>1786</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="203164" cy="208018"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0577D504-ABF9-4515-A87B-41D5AFB8E68C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2520795" y="18289786"/>
+          <a:ext cx="203164" cy="208018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6195</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>4884</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="203164" cy="203759"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431F75A9-8CF6-45AF-B57E-72B37530BBE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2939895" y="18292884"/>
+          <a:ext cx="203164" cy="203759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3717</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>5504</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="205154" cy="203759"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B72C8DA-92C8-4C46-B337-84AA1E2A6B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3356517" y="18293504"/>
+          <a:ext cx="205154" cy="203759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5107</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>2472</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="204866" cy="208018"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAEB227-A80B-447D-994B-A924046DD230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2100607" y="20119272"/>
+          <a:ext cx="204866" cy="208018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6419</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>209718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="203164" cy="222190"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A124EFC3-BC72-4432-A072-30F40199CAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2521019" y="20097918"/>
+          <a:ext cx="203164" cy="222190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6419</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>2472</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="203164" cy="208018"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA2B1DB-2AF7-40B1-9BDD-3A6663C41C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2940119" y="20119272"/>
+          <a:ext cx="203164" cy="208018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3941</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>3092</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="205154" cy="207728"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86826DC5-8C28-4572-8FD8-2CCCEBF2408F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3356741" y="20119892"/>
+          <a:ext cx="205154" cy="207728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223008" cy="205750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2603A76-C00D-41D7-83E2-959F44B59864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="22177298"/>
+          <a:ext cx="223008" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223006" cy="223893"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715E836D-4FC1-442B-BC5C-4F9D3DF9684E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6497362" y="22174200"/>
+          <a:ext cx="223006" cy="223893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223008" cy="205750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7D8E1D-E2D0-4DE0-96D3-28E84241F7F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6916462" y="22177298"/>
+          <a:ext cx="223008" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209178</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="221597" cy="205460"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3828AA0D-795F-4820-9502-341A7BDEADE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7333878" y="22177918"/>
+          <a:ext cx="221597" cy="205460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223122" cy="205750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFBB71A-7444-4B42-A41A-6B4BE1F78BD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734800" y="20348498"/>
+          <a:ext cx="223122" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223121" cy="223893"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77DF69E-0E38-42DA-A92B-87F2CD6A4E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12155213" y="20345400"/>
+          <a:ext cx="223121" cy="223893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223121" cy="205750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33C4E56-FD23-4CA8-BC21-0A76E5C0A225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12574312" y="20348498"/>
+          <a:ext cx="223121" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="221484" cy="205573"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8DE3920-F9A5-49DA-89D9-B417C2AD9609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12991841" y="20349118"/>
+          <a:ext cx="221484" cy="205573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>4942</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="204978" cy="223893"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209387CC-208F-45B5-BACB-6181E1982512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9015592" y="20345400"/>
+          <a:ext cx="204978" cy="223893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>4942</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="204978" cy="205750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E99C8F-B3F0-457A-A29D-B78B2EA2BD7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9434692" y="20348498"/>
+          <a:ext cx="204978" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>2463</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="207423" cy="205573"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B9138C-42F2-48F5-9CAE-4FAE7EA8CEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9851313" y="20349118"/>
+          <a:ext cx="207423" cy="205573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223120" cy="223893"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F159DDAF-63FB-47FC-875B-2FBE4A0BD29E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6497363" y="20345400"/>
+          <a:ext cx="223120" cy="223893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223121" cy="205750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06F9889-C750-4739-A47A-32AD144D32E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6916462" y="20348498"/>
+          <a:ext cx="223121" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="221484" cy="205573"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFC9F69-F3E4-4D8C-9A55-AAB3EE44B9DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7333991" y="20349118"/>
+          <a:ext cx="221484" cy="205573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223120" cy="223892"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1B373F-0716-4820-999D-8C55FF6F5861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6497363" y="18288000"/>
+          <a:ext cx="223120" cy="223892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="223121" cy="205749"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5760418-ECF9-4B90-9330-0353199E37B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6916462" y="18291098"/>
+          <a:ext cx="223121" cy="205749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="221484" cy="205572"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BA643C-41A7-435C-ABF9-AC15A0C9E484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7333991" y="18291718"/>
+          <a:ext cx="221484" cy="205572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="208642" cy="208642"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0998DF9E-6707-41C5-9169-E272613B92B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076951" y="18288000"/>
+          <a:ext cx="208642" cy="208642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="210456" cy="208643"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA2B39A-1048-4388-80A9-3DB0F115AB19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="20345400"/>
+          <a:ext cx="210456" cy="208643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="208643" cy="208643"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA8E528-2DF1-4D01-9846-0B6A6838B3F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="20345400"/>
+          <a:ext cx="208643" cy="208643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC96D95A-A868-47C8-84FA-966F7F8FE714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="3429000"/>
+          <a:ext cx="2933700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27D6870-5E12-4E11-8C7F-EF22BDCF1676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7543800" y="4114800"/>
+          <a:ext cx="1" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205104</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF75A17-C36B-44CB-A205-FA41BB0550FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3348354" y="4068213"/>
+          <a:ext cx="4446" cy="960987"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9688E9-2A45-4721-9E22-E50CC9E569E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="4114800"/>
+          <a:ext cx="0" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>199118</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5780F916-C502-48B9-A3B8-386030159062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="8229600"/>
+          <a:ext cx="2085068" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>8004</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37886</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>37888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD71BDA-B783-4190-A5A7-4E0D7AF113C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5875404" y="8923405"/>
+          <a:ext cx="658532" cy="715683"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90968874-CE4E-47AE-9C35-44E95DEC6526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3562350" y="8915400"/>
+          <a:ext cx="419100" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF7317D-5895-47DD-B20C-720175E0DA76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="8915400"/>
+          <a:ext cx="0" cy="5257800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E236E61-4249-4025-B06B-D802911BB5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="10103757"/>
+          <a:ext cx="0" cy="1097643"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D1D484-C66B-4EC1-BCDB-9E8BD799BCAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5657850" y="8915400"/>
+          <a:ext cx="1676402" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76307</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2584823" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AE356F-1BA3-4271-9B1D-586E2B54B819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3532094" y="10363307"/>
+          <a:ext cx="2584823" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SW4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8562361F-559A-46CA-BDFE-31091F94959D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3771900" y="3657600"/>
+          <a:ext cx="2933700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9EC067-2349-4FDD-86A2-4DA257F36254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="4114800"/>
+          <a:ext cx="0" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44108C2-8E40-4C65-AF90-EA76B5A9E9F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="5257800"/>
+          <a:ext cx="2933700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C4C1CE-BC44-4BB5-A2E7-716BE20589E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4191000" y="5486400"/>
+          <a:ext cx="2933700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0179E5FD-EB65-47B7-B76E-3CE0D8B4CB44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8382000" y="4114800"/>
+          <a:ext cx="1" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6126F8-C0C2-4FFC-BC25-F635FAF5B51C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3607707" y="3839028"/>
+          <a:ext cx="3616779" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD65E8CA-8755-41F2-B282-67A02E11058B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3598635" y="3967842"/>
+          <a:ext cx="3598637" cy="1206501"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993EE058-6419-4960-8946-2BEF5512424A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4026807" y="3940628"/>
+          <a:ext cx="2742293" cy="1115786"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90717</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99787</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47A9126-D634-46FC-811F-8B62026A83C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4072167" y="4013200"/>
+          <a:ext cx="2778576" cy="1115787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAD9C36-3ABF-4F37-A6CA-72ED2E340A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3771900" y="8458200"/>
+          <a:ext cx="2095501" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>113805</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F846EF56-26F3-4F7B-A640-06576B1E5C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5771655" y="8942615"/>
+          <a:ext cx="514845" cy="529771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70D4448-7CCE-46B5-8A8B-1F7D1BEB877F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="8915400"/>
+          <a:ext cx="419101" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B511DACA-A236-4BE2-8C6D-7B70F37CBBA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="11887200"/>
+          <a:ext cx="0" cy="1077686"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F018BF4-E8B4-4AE9-B668-6E4B539C33F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5495925" y="12030077"/>
+          <a:ext cx="1371599" cy="628648"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 725"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="66" name="グループ化 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF446FA9-C383-4054-80F8-12CAC019812C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="417286" y="3338286"/>
+          <a:ext cx="5633358" cy="20029714"/>
+          <a:chOff x="418353" y="3346824"/>
+          <a:chExt cx="5647766" cy="20080941"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="コネクタ: カギ線 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E811854-8602-418A-A33E-4C0AF5F688C8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="418354" y="22381883"/>
+            <a:ext cx="5647765" cy="1045882"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="68" name="直線コネクタ 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DAE0AD-4454-4B45-B68C-D112D88770C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="418353" y="3346824"/>
+            <a:ext cx="0" cy="20080941"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37505627-4071-4245-9007-4BE076E26CE9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="418353" y="3346824"/>
+            <a:ext cx="1464235" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26896BF9-5337-441A-ABBD-71974EAEBE47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="418353" y="21963529"/>
+            <a:ext cx="1464236" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="箱石 文紀" id="{BEFBAD7A-FE31-48AD-B72E-F7C2CF410B7C}" userId="S::fuminori.hakoishi@erii.onmicrosoft.com::80806857-8b75-401c-95be-7b9e9f657cb5" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1629,26 +5147,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="U54" dT="2020-08-20T06:39:21.87" personId="{BEFBAD7A-FE31-48AD-B72E-F7C2CF410B7C}" id="{14224DCD-7B8E-4DAD-805A-93588D24FFCA}">
+    <text>操作の意図が分かりやすいように追加</text>
+  </threadedComment>
+  <threadedComment ref="AF54" dT="2020-08-20T06:39:42.90" personId="{BEFBAD7A-FE31-48AD-B72E-F7C2CF410B7C}" id="{8BF31A71-D53B-45B9-BC2E-BC26742FBB9C}">
+    <text>操作の意図が分かりやすいように追加</text>
+  </threadedComment>
+  <threadedComment ref="R57" dT="2020-08-20T06:45:17.79" personId="{BEFBAD7A-FE31-48AD-B72E-F7C2CF410B7C}" id="{07AA5276-17E1-4454-8B89-780F004DBFEA}">
+    <text>例である明示が欲しい
+EASYだけなの？と思いそう</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA23EFB-1A9B-4DC0-85BB-DAD9DB055848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A385E219-2083-4679-AA13-918B08557ACB}">
   <dimension ref="A1:BY65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AM1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BK23" sqref="BK23"/>
+    <sheetView showGridLines="0" topLeftCell="AM1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1">
       <c r="O3" s="2"/>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="4"/>
@@ -1663,7 +5196,7 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1671,25 +5204,25 @@
       <c r="P4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>42</v>
+      <c r="Q4" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="R4" s="2"/>
       <c r="X4" t="s">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AF4" t="s">
         <v>5</v>
       </c>
       <c r="AG4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO4" s="2"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1708,27 +5241,33 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-    </row>
-    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+    </row>
+    <row r="6" spans="1:41" ht="16.5" customHeight="1">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -1747,133 +5286,198 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="12"/>
-    </row>
-    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="13"/>
-    </row>
-    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="12"/>
-    </row>
-    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="15"/>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="12"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="13"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="12"/>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="13"/>
-    </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="12"/>
-    </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="15"/>
+    </row>
+    <row r="7" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="16"/>
+    </row>
+    <row r="8" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="15"/>
+    </row>
+    <row r="9" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="17"/>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="15"/>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="16"/>
+    </row>
+    <row r="12" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="15"/>
+    </row>
+    <row r="13" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.5" customHeight="1">
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="X15" s="6" t="s">
+      <c r="X15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:41" ht="16.5" customHeight="1">
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1892,7 +5496,7 @@
       <c r="I16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="15" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="1"/>
@@ -1908,7 +5512,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:59" ht="16.5" customHeight="1">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -1930,7 +5534,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="8">
+      <c r="AA17" s="10">
         <v>3</v>
       </c>
       <c r="AB17" s="1"/>
@@ -1938,19 +5542,19 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1">
       <c r="Y20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:59" ht="16.5" customHeight="1">
       <c r="P23" s="5"/>
-      <c r="X23" s="6" t="s">
+      <c r="X23" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" t="s">
+    <row r="24" spans="4:59" ht="16.5" customHeight="1">
+      <c r="F24" s="14" t="s">
         <v>21</v>
       </c>
       <c r="X24" s="1"/>
@@ -1962,14 +5566,14 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:59" ht="16.5" customHeight="1">
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="8">
+      <c r="AA25" s="10">
         <v>2</v>
       </c>
       <c r="AB25" s="1"/>
@@ -1977,7 +5581,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:59" ht="16.5" customHeight="1">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1990,7 +5594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:59" ht="16.5" customHeight="1">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2000,7 +5604,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:59" ht="16.5" customHeight="1">
       <c r="X31" t="s">
         <v>7</v>
       </c>
@@ -2008,10 +5612,10 @@
         <v>24</v>
       </c>
       <c r="BG31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="4:59" ht="16.5" customHeight="1">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2033,17 +5637,17 @@
         <v>0</v>
       </c>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="7" t="s">
+      <c r="AC32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD32" s="8">
+      <c r="AD32" s="10">
         <v>6</v>
       </c>
-      <c r="AE32" s="8">
+      <c r="AE32" s="10">
         <v>0</v>
       </c>
       <c r="AG32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AQ32" s="1" t="s">
         <v>2</v>
@@ -2068,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="4:77" ht="16.5" customHeight="1">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2094,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1"/>
-      <c r="AR33" s="10" t="s">
+      <c r="AR33" s="12" t="s">
         <v>4</v>
       </c>
       <c r="AS33" s="1"/>
@@ -2110,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:77" ht="16.5" customHeight="1">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2129,7 +5733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:77" ht="16.5" customHeight="1">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2139,26 +5743,26 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="4:77" ht="16.5" customHeight="1">
       <c r="AQ38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="4:77" ht="16.5" customHeight="1">
       <c r="X39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AQ39" t="s">
         <v>14</v>
       </c>
       <c r="BC39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="BR39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="4:77" ht="16.5" customHeight="1">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2180,25 +5784,25 @@
         <v>0</v>
       </c>
       <c r="AB40" s="1"/>
-      <c r="AC40" s="7" t="s">
+      <c r="AC40" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD40" s="8">
+      <c r="AD40" s="10">
         <v>5</v>
       </c>
-      <c r="AE40" s="8">
+      <c r="AE40" s="10">
         <v>9</v>
       </c>
-      <c r="AQ40" s="9" t="s">
+      <c r="AQ40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AR40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="9">
+      <c r="AR40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="11">
         <v>1</v>
       </c>
       <c r="AU40" s="1"/>
@@ -2224,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="BG40" s="1"/>
-      <c r="BH40" s="7" t="s">
+      <c r="BH40" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BI40" s="8">
+      <c r="BI40" s="10">
         <v>5</v>
       </c>
-      <c r="BJ40" s="8">
+      <c r="BJ40" s="10">
         <v>7</v>
       </c>
       <c r="BR40" s="1" t="s">
@@ -2246,17 +5850,17 @@
         <v>0</v>
       </c>
       <c r="BV40" s="1"/>
-      <c r="BW40" s="7" t="s">
+      <c r="BW40" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BX40" s="8">
+      <c r="BX40" s="10">
         <v>5</v>
       </c>
-      <c r="BY40" s="8">
+      <c r="BY40" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:77" ht="16.5" customHeight="1">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2282,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="1"/>
-      <c r="AR41" s="10" t="s">
+      <c r="AR41" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AS41" s="1"/>
@@ -2314,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="BR41" s="1"/>
-      <c r="BS41" s="10" t="s">
+      <c r="BS41" s="12" t="s">
         <v>0</v>
       </c>
       <c r="BT41" s="1"/>
@@ -2330,23 +5934,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:77" ht="16.5" customHeight="1">
       <c r="Y44" t="s">
         <v>3</v>
       </c>
       <c r="AR44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="4:77" ht="16.5" customHeight="1">
       <c r="X47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AQ47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="4:77" ht="16.5" customHeight="1">
       <c r="X48" s="1" t="s">
         <v>2</v>
       </c>
@@ -2360,13 +5964,13 @@
         <v>0</v>
       </c>
       <c r="AB48" s="1"/>
-      <c r="AC48" s="7" t="s">
+      <c r="AC48" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD48" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="8">
+      <c r="AD48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="10">
         <v>0</v>
       </c>
       <c r="AQ48" s="1" t="s">
@@ -2392,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="4:50" ht="16.5" customHeight="1">
       <c r="X49" s="1"/>
       <c r="Y49" s="1" t="s">
         <v>0</v>
@@ -2410,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="1"/>
-      <c r="AR49" s="10" t="s">
+      <c r="AR49" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AS49" s="1"/>
@@ -2426,12 +6030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="4:50" ht="16.5" customHeight="1">
       <c r="AR52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="4:50" ht="16.5" customHeight="1">
       <c r="D55" t="s">
         <v>27</v>
       </c>
@@ -2439,7 +6043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="4:50" ht="16.5" customHeight="1">
       <c r="D56" s="1" t="s">
         <v>29</v>
       </c>
@@ -2458,45 +6062,45 @@
       <c r="I56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="15" t="s">
         <v>33</v>
       </c>
       <c r="K56" s="1"/>
       <c r="T56" t="s">
         <v>26</v>
       </c>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="2"/>
-      <c r="AQ56" s="9" t="s">
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AQ56" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AR56" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="9">
+      <c r="AR56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="11">
         <v>3</v>
       </c>
-      <c r="AT56" s="9">
+      <c r="AT56" s="11">
         <v>0</v>
       </c>
       <c r="AU56" s="1"/>
-      <c r="AV56" s="7" t="s">
+      <c r="AV56" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AW56" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:50" ht="16.5" customHeight="1">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
@@ -2506,23 +6110,23 @@
         <v>2</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-      <c r="J57" s="9">
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
         <v>3</v>
       </c>
-      <c r="K57" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
       <c r="AQ57" s="1"/>
       <c r="AR57" s="1" t="s">
         <v>0</v>
@@ -2540,17 +6144,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="4:50" ht="16.5" customHeight="1">
       <c r="E60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="4:50" ht="16.5" customHeight="1">
       <c r="D63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="4:50" ht="16.5" customHeight="1">
       <c r="D64" s="1" t="s">
         <v>29</v>
       </c>
@@ -2569,12 +6173,12 @@
       <c r="I64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="15" t="s">
         <v>33</v>
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="4:11" ht="16.5" customHeight="1">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
@@ -2584,13 +6188,13 @@
         <v>2</v>
       </c>
       <c r="H65" s="1"/>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9">
+      <c r="I65" s="11">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11">
         <v>3</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2600,4 +6204,1198 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0F25E9-EF5E-412D-B8DC-11A09E1E55B8}">
+  <dimension ref="A1:CE106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U54" sqref="U54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="16.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="16.5" customHeight="1">
+      <c r="O3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+    </row>
+    <row r="4" spans="1:41" ht="16.5" customHeight="1">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="2"/>
+      <c r="AO4" s="2"/>
+    </row>
+    <row r="5" spans="1:41" ht="16.5" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:41" ht="16.5" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="9" spans="1:41" ht="16.5" customHeight="1">
+      <c r="AJ9" s="21"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.5" customHeight="1">
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="16.5" customHeight="1">
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="AH16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO16" s="1"/>
+    </row>
+    <row r="17" spans="10:61" ht="16.5" customHeight="1">
+      <c r="J17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="T17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+    </row>
+    <row r="20" spans="10:61" ht="16.5" customHeight="1">
+      <c r="M20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>68</v>
+      </c>
+      <c r="V20" s="20"/>
+      <c r="AK20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="10:61" ht="16.5" customHeight="1">
+      <c r="L23" t="s">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI23" s="5"/>
+    </row>
+    <row r="24" spans="10:61" ht="16.5" customHeight="1">
+      <c r="L24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="AJ24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ24" s="1"/>
+    </row>
+    <row r="25" spans="10:61" ht="16.5" customHeight="1">
+      <c r="L25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
+        <v>3</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="V25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+    </row>
+    <row r="31" spans="10:61" ht="16.5" customHeight="1">
+      <c r="K31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="10:37" ht="16.5" customHeight="1">
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="10:37" ht="16.5" customHeight="1">
+      <c r="J37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="1"/>
+      <c r="AD37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="1"/>
+    </row>
+    <row r="38" spans="10:37" ht="16.5" customHeight="1">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="10:37" ht="16.5" customHeight="1">
+      <c r="P40" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="S40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="10:37" ht="16.5" customHeight="1">
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="4"/>
+      <c r="AB41" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="10:37" ht="16.5" customHeight="1">
+      <c r="J42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="T42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="10:37" ht="16.5" customHeight="1">
+      <c r="T43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="10:37" ht="16.5" customHeight="1">
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="10:37" ht="16.5" customHeight="1">
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="10:37" ht="16.5" customHeight="1">
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="49" spans="10:77" ht="16.5" customHeight="1">
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="10:77" ht="16.5" customHeight="1">
+      <c r="J50" s="2"/>
+      <c r="K50" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="T50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="10:77" ht="16.5" customHeight="1">
+      <c r="T51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W51" s="1"/>
+      <c r="X51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" spans="10:77" ht="16.5" customHeight="1">
+      <c r="T52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W52" s="1">
+        <v>1</v>
+      </c>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="10:77" ht="16.5" customHeight="1">
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="10:77" ht="16.5" customHeight="1">
+      <c r="U55" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="10:77" ht="16.5" customHeight="1">
+      <c r="BR57" s="2"/>
+      <c r="BS57" s="2"/>
+      <c r="BT57" s="2"/>
+      <c r="BU57" s="2"/>
+      <c r="BV57" s="2"/>
+      <c r="BW57" s="4"/>
+      <c r="BX57" s="2"/>
+      <c r="BY57" s="2"/>
+    </row>
+    <row r="58" spans="10:77" ht="16.5" customHeight="1">
+      <c r="T58" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR58" s="2"/>
+      <c r="BS58" s="2"/>
+      <c r="BT58" s="2"/>
+      <c r="BU58" s="2"/>
+      <c r="BV58" s="2"/>
+      <c r="BW58" s="2"/>
+      <c r="BX58" s="2"/>
+      <c r="BY58" s="2"/>
+    </row>
+    <row r="59" spans="10:77" ht="16.5" customHeight="1">
+      <c r="T59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AE59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+    </row>
+    <row r="60" spans="10:77" ht="16.5" customHeight="1">
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="10:77" ht="16.5" customHeight="1">
+      <c r="J63" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="10:77" ht="16.5" customHeight="1">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="10">
+        <v>3</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="BX65" s="2"/>
+      <c r="BY65" s="2"/>
+      <c r="BZ65" s="2"/>
+      <c r="CA65" s="2"/>
+      <c r="CB65" s="4"/>
+      <c r="CC65" s="2"/>
+      <c r="CE65" s="2"/>
+    </row>
+    <row r="66" spans="10:83" ht="16.5" customHeight="1">
+      <c r="BX66" s="2"/>
+      <c r="BY66" s="2"/>
+      <c r="BZ66" s="2"/>
+      <c r="CA66" s="2"/>
+      <c r="CB66" s="2"/>
+      <c r="CC66" s="2"/>
+      <c r="CD66" s="2"/>
+      <c r="CE66" s="2"/>
+    </row>
+    <row r="68" spans="10:83" ht="16.5" customHeight="1">
+      <c r="K68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J71" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="10">
+        <v>2</v>
+      </c>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="BX73" s="2"/>
+      <c r="BY73" s="2"/>
+      <c r="BZ73" s="2"/>
+      <c r="CA73" s="2"/>
+      <c r="CB73" s="4"/>
+      <c r="CC73" s="2"/>
+      <c r="CE73" s="2"/>
+    </row>
+    <row r="74" spans="10:83" ht="16.5" customHeight="1">
+      <c r="BX74" s="2"/>
+      <c r="BY74" s="2"/>
+      <c r="BZ74" s="2"/>
+      <c r="CA74" s="2"/>
+      <c r="CB74" s="2"/>
+      <c r="CC74" s="2"/>
+      <c r="CD74" s="2"/>
+      <c r="CE74" s="2"/>
+    </row>
+    <row r="76" spans="10:83" ht="16.5" customHeight="1">
+      <c r="K76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J79" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1"/>
+      <c r="O80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P80" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q80" s="10">
+        <v>0</v>
+      </c>
+      <c r="S80" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="12"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="BX81" s="2"/>
+      <c r="BY81" s="2"/>
+      <c r="BZ81" s="2"/>
+      <c r="CA81" s="2"/>
+      <c r="CB81" s="4"/>
+      <c r="CC81" s="2"/>
+      <c r="CE81" s="2"/>
+    </row>
+    <row r="82" spans="10:83" ht="16.5" customHeight="1">
+      <c r="BX82" s="2"/>
+      <c r="BY82" s="2"/>
+      <c r="BZ82" s="2"/>
+      <c r="CA82" s="2"/>
+      <c r="CB82" s="2"/>
+      <c r="CC82" s="2"/>
+      <c r="CD82" s="2"/>
+      <c r="CE82" s="2"/>
+    </row>
+    <row r="84" spans="10:83" ht="16.5" customHeight="1">
+      <c r="K84" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J87" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P88" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q88" s="10">
+        <v>9</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="AC89" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU89" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV89" s="10">
+        <v>7</v>
+      </c>
+      <c r="BD89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ89" s="10">
+        <v>5</v>
+      </c>
+      <c r="BK89" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="10:83" ht="16.5" customHeight="1">
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="12"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="12"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+    </row>
+    <row r="93" spans="10:83" ht="16.5" customHeight="1">
+      <c r="AD93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="10:83" ht="16.5" customHeight="1">
+      <c r="J96" s="2"/>
+      <c r="K96" t="s">
+        <v>3</v>
+      </c>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="AC96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="3:36" ht="16.5" customHeight="1">
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="AC97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI97" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:36" ht="16.5" customHeight="1">
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+    </row>
+    <row r="100" spans="3:36" ht="16.5" customHeight="1">
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="3:36" ht="16.5" customHeight="1">
+      <c r="AD101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:36" ht="16.5" customHeight="1">
+      <c r="J104" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="3:36" ht="16.5" customHeight="1">
+      <c r="J105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O105" s="3">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD105" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:36" ht="16.5" customHeight="1">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>